--- a/resest/TryImport/tmp/data.xlsx
+++ b/resest/TryImport/tmp/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MrAlligator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63945DCC-BA63-4822-BF5C-6DE27AAAFF05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7410E527-17F7-4E70-B2F4-3490F2D2BB1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="208" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>NIS</t>
   </si>
@@ -37,16 +37,34 @@
     <t>Alamat</t>
   </si>
   <si>
-    <t>E41181728</t>
-  </si>
-  <si>
-    <t>Bima Bagaskara</t>
+    <t>Agama</t>
+  </si>
+  <si>
+    <t>Tempat Lahir</t>
+  </si>
+  <si>
+    <t>Tanggal Lahir</t>
+  </si>
+  <si>
+    <t>E41181256</t>
+  </si>
+  <si>
+    <t>Rizki Widya Pratama</t>
   </si>
   <si>
     <t>Laki - Laki</t>
   </si>
   <si>
+    <t>Islam</t>
+  </si>
+  <si>
     <t>Banyuwangi</t>
+  </si>
+  <si>
+    <t>30-06-1998</t>
+  </si>
+  <si>
+    <t>Tuban</t>
   </si>
 </sst>
 </file>
@@ -421,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -432,12 +450,13 @@
     <col min="1" max="1" width="15.5703125"/>
     <col min="2" max="2" width="30.7109375"/>
     <col min="3" max="3" width="15.42578125"/>
-    <col min="4" max="4" width="19.7109375"/>
-    <col min="5" max="5" width="44.42578125"/>
-    <col min="6" max="1025" width="11.5703125"/>
+    <col min="4" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.7109375"/>
+    <col min="8" max="8" width="44.42578125"/>
+    <col min="9" max="1028" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,27 +467,45 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
-        <v>82351627172</v>
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>82331067312</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
